--- a/data/trans_dic/P21D_2_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P21D_2_R-Provincia-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.07915166091868443</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.08290073435302527</v>
+        <v>0.08290073435302528</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04470530508854486</v>
+        <v>0.0463545622734293</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04141880553729376</v>
+        <v>0.04267770852087521</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05561964094107688</v>
+        <v>0.05247461731448978</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1426816096088241</v>
+        <v>0.1511096665269034</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1384803747495645</v>
+        <v>0.1390776939935763</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1230620462380382</v>
+        <v>0.1193373318950241</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01508619374837736</v>
+        <v>0.01671519820052638</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.009828639749696963</v>
+        <v>0.009861038036285489</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01718813920242864</v>
+        <v>0.01561853223399157</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.07342315939162108</v>
+        <v>0.07517865417338621</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.051265559335332</v>
+        <v>0.05577003784266252</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05011624394674071</v>
+        <v>0.04847534391429862</v>
       </c>
     </row>
     <row r="10">
@@ -694,10 +694,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01420389103554134</v>
+        <v>0.01416780457722984</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01295719981698479</v>
+        <v>0.01320877407414159</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05158351979722357</v>
+        <v>0.06738850301992919</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0669049144325024</v>
+        <v>0.06156938601746535</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04763589851066531</v>
+        <v>0.05026097360833142</v>
       </c>
     </row>
     <row r="13">
@@ -762,10 +762,10 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.02312029431321448</v>
+        <v>0.02314869710891359</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01193944011262067</v>
+        <v>0.01233318275371502</v>
       </c>
     </row>
     <row r="16">
@@ -826,10 +826,10 @@
         <v>0.05865481090132188</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.04279417681572194</v>
+        <v>0.04279417681572193</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.05115733832780189</v>
+        <v>0.0511573383278019</v>
       </c>
     </row>
     <row r="20">
@@ -840,13 +840,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02946653532576719</v>
+        <v>0.02979369281368249</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01750393961272676</v>
+        <v>0.01928491488776583</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03104139999914373</v>
+        <v>0.03127398051075987</v>
       </c>
     </row>
     <row r="21">
@@ -857,13 +857,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.09888104941473833</v>
+        <v>0.1052278778709306</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.08863948781356878</v>
+        <v>0.08632546922124766</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.07890257906280587</v>
+        <v>0.07874192429514203</v>
       </c>
     </row>
     <row r="22">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.009665268013219781</v>
+        <v>0.009828891948077886</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.006125327416758109</v>
+        <v>0.006249744053658575</v>
       </c>
     </row>
     <row r="24">
@@ -912,13 +912,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01593047825926892</v>
+        <v>0.01602937204375405</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03589029472129689</v>
+        <v>0.03690141230932654</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02163827248080539</v>
+        <v>0.02252012656579775</v>
       </c>
     </row>
     <row r="25">
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.00556164995247341</v>
+        <v>0.005345998805016995</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.004719111764776871</v>
+        <v>0.004300707647378482</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02019436509750085</v>
+        <v>0.01991671214011797</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02644347431861069</v>
+        <v>0.02502238298486209</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01703423562189271</v>
+        <v>0.01802253657343411</v>
       </c>
     </row>
     <row r="28">
@@ -994,7 +994,7 @@
         <v>0.02393168275672912</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.02270879692959297</v>
+        <v>0.02270879692959296</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01460916990036885</v>
+        <v>0.01525562204858178</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.01802994238425104</v>
+        <v>0.01800778550526659</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.01837119975296615</v>
+        <v>0.01779602793129704</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.03059811407277426</v>
+        <v>0.03021109082032805</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.0317171778097487</v>
+        <v>0.03200643812850464</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.02841750501098507</v>
+        <v>0.02844298010347283</v>
       </c>
     </row>
     <row r="31">
@@ -1174,13 +1174,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6897</v>
+        <v>7152</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5745</v>
+        <v>5920</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>16296</v>
+        <v>15375</v>
       </c>
     </row>
     <row r="7">
@@ -1191,13 +1191,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>22014</v>
+        <v>23314</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>19208</v>
+        <v>19291</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>36057</v>
+        <v>34965</v>
       </c>
     </row>
     <row r="8">
@@ -1246,13 +1246,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3345</v>
+        <v>3706</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2484</v>
+        <v>2492</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>8155</v>
+        <v>7410</v>
       </c>
     </row>
     <row r="11">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16280</v>
+        <v>16670</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>12956</v>
+        <v>14094</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>23778</v>
+        <v>22999</v>
       </c>
     </row>
     <row r="12">
@@ -1321,10 +1321,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2079</v>
+        <v>2073</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3102</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="15">
@@ -1335,13 +1335,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4800</v>
+        <v>6271</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9791</v>
+        <v>9010</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11404</v>
+        <v>12032</v>
       </c>
     </row>
     <row r="16">
@@ -1406,10 +1406,10 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>4659</v>
+        <v>4665</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>4489</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="20">
@@ -1518,13 +1518,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>3738</v>
+        <v>3779</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1990</v>
+        <v>2193</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>7467</v>
+        <v>7523</v>
       </c>
     </row>
     <row r="27">
@@ -1535,13 +1535,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>12543</v>
+        <v>13348</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>10080</v>
+        <v>9817</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>18981</v>
+        <v>18942</v>
       </c>
     </row>
     <row r="28">
@@ -1593,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3426</v>
+        <v>3484</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>4333</v>
+        <v>4421</v>
       </c>
     </row>
     <row r="31">
@@ -1607,13 +1607,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>5620</v>
+        <v>5655</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>12723</v>
+        <v>13082</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>15305</v>
+        <v>15929</v>
       </c>
     </row>
     <row r="32">
@@ -1665,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2268</v>
+        <v>2180</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>3626</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="35">
@@ -1679,13 +1679,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>7283</v>
+        <v>7183</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>10782</v>
+        <v>10202</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>13089</v>
+        <v>13848</v>
       </c>
     </row>
     <row r="36">
@@ -1734,13 +1734,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>22911</v>
+        <v>23925</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>30554</v>
+        <v>30516</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>59943</v>
+        <v>58066</v>
       </c>
     </row>
     <row r="39">
@@ -1751,13 +1751,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>47986</v>
+        <v>47379</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>53748</v>
+        <v>54238</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>92723</v>
+        <v>92806</v>
       </c>
     </row>
     <row r="40">
